--- a/aspect_card_utils/main_aspect_data_description_converted_both_filtered.xlsx
+++ b/aspect_card_utils/main_aspect_data_description_converted_both_filtered.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parak\Documents\Parakram\astro_project\astro_aspects\aspect_card_utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E2CC7A-6D01-46D3-B8E2-44AC7853EC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28BB116-58C5-4E5C-92EF-06B94C682A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="645" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Full Aspect</t>
   </si>
@@ -55,6 +55,50 @@
   </si>
   <si>
     <t>Full_Description_Hindi_Unicode</t>
+  </si>
+  <si>
+    <t>mar-squ-jup</t>
+  </si>
+  <si>
+    <t>Mars Square Jupyter</t>
+  </si>
+  <si>
+    <t>LoHkko esa vgadkj@gB/kfeZrk@&gt;Ddhiu@ladqfpr fopkj/kkjk dh o`fRr c&lt;+rh gSA jhfr&amp;fjoktksa@fn[kkosckth ds dk;ksZa esa O;fDr c&lt;+&amp;p&lt;+dj [kpZ djrk gSA /kkfeZd@lkekftd@jktuSfrd@'kS{kf.kd fLFkfr;ksa esa LFkku izkfIr gsrq vfr egRokdka{kh jgrk gSA ijUrq fcuk rS;kjh ds fd;s iz;klksa ds dkj.k gkfu@leL;k izkIr djrk gSA bl le; esa O;fDr us fdlh u, {ks= esa dk;Z vkjaHk ugha djuk pkfg;sA
+bl le; esa vfr[kpZ dh fLFkfr jgrh gSA vkfFkZd o 'kkjhfjd /kks[ks dh laHkkouk jgrh gSA la;qDr lEifRr@la;qDr O;olk;@dkuwuh ?kVuk,a@dj bR;kfn es leL;k dh laHkkouk jgrh gSA fonsf'k;ksa ls O;ogkj ,oa O;kikj ls vR;ar lko/kkuh dh vko';drk jgrh gSA vlko/kkuh@vfLFkjrk@xSj ftEesnkjh ls gkfu igq¡p ldrh gSA ;k=k esa /kks[ks vFkok Bxk;s tkus dh laHkkouk jgrh gSA O;kikj esa rsth&amp;eanh ls gkfu dh fLFkfr jgrh gSA</t>
+  </si>
+  <si>
+    <t>स्वभाव में अहंकार/हठधर्मिता/जिद्दीपन/संकीर्ण विचारधारा की प्रवृत्ति बढ़ती है। व्यक्ति रीति-रिवाजों/दिखावटी कार्यों में बेतुका खर्च करता है। धार्मिक/सामाजिक/राजनीतिक/शैक्षणिक स्थितियों में स्थान प्राप्ति के लिए अत्यधिक महत्वाकांक्षी रहता है। परंतु बिना तैयारी के किए प्रयासों के कारण हानि/समस्या प्राप्त करता है। इस समय व्यक्ति को किसी नए क्षेत्र में कार्य प्रारंभ नहीं करना चाहिए। अत्यधिक खर्च की स्थिति रहती है। आर्थिक और शारीरिक धोखे की संभावना रहती है। संयुक्त संपत्ति/संयुक्त व्यवसाय/कानूनी घटनाएँ/कर आदि में समस्या की संभावना रहती है। विदेशियों से व्यवहार और व्यापार में अत्यधिक सावधानी की आवश्यकता रहती है। असावधानी/अस्थिरता/गैर-जिम्मेदारी से हानि पहुँच सकती है। यात्रा में धोखा या ठगे जाने की संभावना रहती है। व्यापार में उतार-चढ़ाव से हानि की स्थिति रहती है।</t>
+  </si>
+  <si>
+    <t>Ego/stubbornness/obstinacy/narrow-mindedness increases in nature. Wastes money on rituals/showy activities. Overly ambitious for positions in religious/social/political/educational fields. Faces losses/problems from unprepared efforts. Should not start new ventures during this period. Overspending likely. Risk of financial/physical deception. Potential issues in joint assets/businesses/legal matters/taxes. Extreme caution needed in foreign dealings/trade. Losses may occur from carelessness/instability/irresponsibility. Travel scams possible. Business fluctuations cause losses.</t>
+  </si>
+  <si>
+    <t>स्वभाव में अहंकार/हठधर्मिता/जिद्दीपन/संकीर्ण विचारधारा की प्रवृत्ति बढ़ती है। व्यक्ति रीति.रिवाजों/दिखावटी कार्यों में बेतुका खर्च करता है। धार्मिक/सामाजिक/राजनीतिक/शैक्षणिक स्थितियों में स्थान प्राप्ति के लिए अत्यधिक महत्वाकांक्षी रहता है। परंतु बिना तैयारी के किए प्रयासों के कारण हानि/समस्या प्राप्त करता है। इस समय व्यक्ति को किसी नए क्षेत्र में कार्य प्रारंभ नहीं करना चाहिए। अत्यधिक खर्च की स्थिति रहती है। आर्थिक और शारीरिक धोखे की संभावना रहती है। संयुक्त संपत्ति/संयुक्त व्यवसाय/कानूनी घटनाएँ/कर आदि में समस्या की संभावना रहती है। विदेशियों से व्यवहार और व्यापार में अत्यधिक सावधानी की आवश्यकता रहती है। असावधानी/अस्थिरता/गैर.जिम्मेदारी से हानि पहुँच सकती है। यात्रा में धोखा या ठगे जाने की संभावना रहती है। व्यापार में उतार.चढ़ाव से हानि की स्थिति रहती है।</t>
+  </si>
+  <si>
+    <t>स्वभाव में अहंकार/हठधमर्िता/झक्कीपन/संकुचित विचारधारा की वृत्ित बढ़ती है। रीति-रिवाजों/दिखावेबाजी के कायर्ों में व्यक्ित बढ़-चढ़कर खर्च करता है। धामर्िक/सामाजिक/राजनैतिक/शैक्षण्िाक स्िथतियों में स्थान प्राप्ित हेतु अति महत्वाकांक्षी रहता है। परन्तु बिना तैयारी के किये प्रयासों के कारण हानि/समस्या प्राप्त करता है। इस समय में व्यक्ित ने किसी नए क्षेत्र में कार्य आरंभ नहीं करना चाहिये।
+इस समय में अतिखर्च की स्िथति रहती है। आथ्र्िाक व शारीरिक धोखे की संभावना रहती है। संयुक्त सम्पत्ित/संयुक्त व्यवसाय/कानूनी घटनाएं/कर इत्यादि मे समस्या की संभावना रहती है। विदेश्िायों से व्यवहार एवं व्यापार से अत्यंत सावधानी की आवश्यकता रहती है। असावधानी/अस्िथरता/गैर जिम्मेदारी से हानि पहुँच सकती है। यात्रा में धोखे अथवा ठगाये जाने की संभावना रहती है। व्यापार में तेजी-मंदी से हानि की स्िथति रहती है।</t>
+  </si>
+  <si>
+    <t>sun-squ-ven</t>
+  </si>
+  <si>
+    <t>Sun Square Venus</t>
+  </si>
+  <si>
+    <t>vlUrks"k] O;FkZ [kpZ] ifjJe dh deh] lq[k izkfIr ds fy;s viuk;s xyr jkLrksa ls leL;k fufeZr gksxhA cPpksa dk uqdlku gks ldrk gSA dHkh&amp;dHkh O;fDr vU; ls iz'kalk@/;kukd"kZ.k izkIr djus gsrq@Lo;a dks iznf'kZr djus gsrq vf/kd [kpZ djrk gSA ;g [kpZ jhfr&amp;fjoktksa ij c&lt;+&amp;p&lt;+dj [kpZ djuk Hkh gks ldrk gSA LodsfUnzr O;ogkj] HkkoukRed xyr lgkuqHkwfr ds dkj.k fdlh O;ogkj esa Qal tkrk gS vkSj [kpZ djrk gSA v:fpdj@vlUrks"ktud dk;ksZa dks Vkyus dh dksf'k'k djrk gSA lkekftd lEcU/kksa esa Hkkoukvksa dks Bsl yxsxhA dksbZ xyrQgeh fufeZr gksus dh lEHkkouk vf/kd jgsxhA bl le; esa yksxksa dks ,df=r djuk mfpr ugha jgrk gSA bl dky esa O;fDr dyk@euksjatu ds tks lk/ku pqurk gS] og vPNs ifj.kke okys ugha gksrs gSA ;g le; ladksp o ,dkRed thou thus okys O;fDr;ksa ¼O;olkf;d dfBukbZ;k¡ Hkh jgrh gSA½ gsrq lg;ksxh jgrk gSA lsokfuo`Rr ¼fjVk;j½ yksxksa ds fy;s HkhA</t>
+  </si>
+  <si>
+    <t>असंतोष, व्यर्थ खर्च, परिश्रम की कमी, सुख प्राप्ति के लिए अपनाए गलत रास्तों से समस्या निर्मित होगी। बच्चों का नुकसान हो सकता है। व्यक्ति अन्य से प्रशंसा//यान आकर्षण प्राप्त करने के लिए अधिक खर्च करता है। यह खर्च सामाजिक रीति-रिवाजों पर बढ़-चढ़ कर करना भी हो सकता है। अदूरदर्शी व्यवहार, भावनात्मक भ्रम से किसी आयोजन में फंसा जाता है और खर्च करता है। आर्थिक/असंतोषजनक कार्य को टालने की कोशिश की जाती है। सामाजिक समस्या में भावनाओं को ठेस पहुँचती है।</t>
+  </si>
+  <si>
+    <t>Dissatisfaction, unnecessary expenses, lack of effort, and seeking happiness through wrong means will cause problems. Losses related to children may occur. The person spends more to gain praise or attention from others. This expense may also be on exaggerated social customs. Shortsighted behavior and emotional confusion may trap the person in an event, leading to expenses. They may try to avoid or procrastinate on economic/dissatisfying tasks. Emotions are hurt in social issues.</t>
+  </si>
+  <si>
+    <t>असंतोषए व्यर्थ खर्चए परिश्रम की कमीए सुख प्राप्ति के लिए अपनाए गलत रास्तों से समस्या निर्मित होगी। बच्चों का नुकसान हो सकता है। व्यक्ति अन्य से प्रशंसा//यान आकर्षण प्राप्त करने के लिए अधिक खर्च करता है। यह खर्च सामाजिक रीति.रिवाजों पर बढ़.चढ़ कर करना भी हो सकता है। अदूरदर्शी व्यवहारए भावनात्मक भ्रम से किसी आयोजन में फंसा जाता है और खर्च करता है। आर्थिक/असंतोषजनक कार्य को टालने की कोशिश की जाती है। सामाजिक समस्या में भावनाओं को ठेस पहुँचती है।</t>
+  </si>
+  <si>
+    <t>असन्तोष, व्यर्थ खर्च, परिश्रम की कमी, सुख प्राप्ित के लिये अपनाये गलत रास्तों से समस्या निमर्ित होगी। बच्चों का नुकसान हो सकता है। कभी-कभी व्यक्ित अन्य से प्रशंसा/ध्यानाकर्षण प्राप्त करने हेतु/स्वयं को प्रदश्र्िात करने हेतु अध्िाक खर्च करता है। यह खर्च रीति-रिवाजों पर बढ़-चढ़कर खर्च करना भी हो सकता है। स्वकेन्िद्रत व्यवहार, भावनात्मक गलत सहानुभूति के कारण किसी व्यवहार में फंस जाता है और खर्च करता है। अरूचिकर/असन्तोषजनक कायर्ों को टालने की कोश्िाश करता है। सामाजिक सम्बन्धों में भावनाओं को ठेस लगेगी। कोर्इ गलतफहमी निमर्ित होने की सम्भावना अध्िाक रहेगी। इस समय में लोगों को एकत्रित करना उचित नहीं रहता है। इस काल में व्यक्ित कला/मनोरंजन के जो साधन चुनता है, वह अच्छे परिणाम वाले नहीं होते है। यह समय संकोच व एकात्मक जीवन जीने वाले व्यक्ितयों (व्यवसायिक कठिनार्इयाँ भी रहती है।) हेतु सहयोगी रहता है। सेवानिवृत्त (रिटायर) लोगों के लिये भी।</t>
   </si>
 </sst>
 </file>
@@ -111,13 +155,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -424,17 +465,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="255.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.77734375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="55.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.77734375" customWidth="1"/>
+    <col min="7" max="7" width="55.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -453,11 +496,57 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
